--- a/Project_Management/Work breakdown structure.xlsx
+++ b/Project_Management/Work breakdown structure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>Jogar o jogo</t>
   </si>
@@ -63,15 +63,9 @@
     <t>4ª Semana</t>
   </si>
   <si>
-    <t>Entregar Pasta com tudo incluido</t>
-  </si>
-  <si>
     <t>Todos</t>
   </si>
   <si>
-    <t>Scrum Master -Wagna</t>
-  </si>
-  <si>
     <t>Scrum Master - Guilherme</t>
   </si>
   <si>
@@ -102,12 +96,6 @@
     <t>Fazer Video</t>
   </si>
   <si>
-    <t>2ª Semana</t>
-  </si>
-  <si>
-    <t>Scrum Master - Brás</t>
-  </si>
-  <si>
     <t>Scrum Master - Bernardo</t>
   </si>
   <si>
@@ -132,9 +120,6 @@
     <t>Por fazer</t>
   </si>
   <si>
-    <t>Fazer User Cases</t>
-  </si>
-  <si>
     <t>6ª Semana</t>
   </si>
   <si>
@@ -160,13 +145,34 @@
   </si>
   <si>
     <t>Wagna e Guilherme</t>
+  </si>
+  <si>
+    <t>2ª semana</t>
+  </si>
+  <si>
+    <t>Scrum Master -  Wagna</t>
+  </si>
+  <si>
+    <t>Scrum Master -Brás</t>
+  </si>
+  <si>
+    <t>Guilherme e Wagna</t>
+  </si>
+  <si>
+    <t>Discutir e coordenar objetivos do grupo</t>
+  </si>
+  <si>
+    <t>Examinar Código</t>
+  </si>
+  <si>
+    <t>Por as ideias em prática e alterar código</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,8 +180,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,12 +203,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -252,7 +258,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,557 +561,445 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:U42"/>
+  <dimension ref="B4:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="N4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="R4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="11">
+        <v>45238</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="K5" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
+      <c r="Q7" s="11">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="9"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" s="5" t="s">
+      <c r="J12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="5" t="s">
+      <c r="J14" s="7"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="8"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="T9" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="8"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="T13" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J16" s="7"/>
+      <c r="K16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
+      <c r="J18" s="7"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5" t="s">
+      <c r="J19" s="7"/>
+      <c r="K19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5" t="s">
+      <c r="K22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="1"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="6" t="s">
-        <v>37</v>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C28" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C29" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Management/Work breakdown structure.xlsx
+++ b/Project_Management/Work breakdown structure.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme Carvalhão\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD152D6-C3DC-400E-9B55-7FF0C9D086A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="144" windowWidth="28740" windowHeight="12456"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
     <sheet name="Folha2" sheetId="2" r:id="rId2"/>
     <sheet name="Folha3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>Jogar o jogo</t>
   </si>
@@ -33,9 +52,6 @@
     <t>Avaliar métricas</t>
   </si>
   <si>
-    <t>Organizar Grupo</t>
-  </si>
-  <si>
     <t>Entregar ficheiro User Stories</t>
   </si>
   <si>
@@ -166,13 +182,28 @@
   </si>
   <si>
     <t>Por as ideias em prática e alterar código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizar trabalho </t>
+  </si>
+  <si>
+    <t>Discuss and coordinate commits.</t>
+  </si>
+  <si>
+    <t>Discuss our code ideas.</t>
+  </si>
+  <si>
+    <t>Legenda:</t>
+  </si>
+  <si>
+    <t>Entrega</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +217,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +242,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,15 +302,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,14 +329,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -315,7 +377,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -387,7 +449,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -560,61 +622,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:R29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B4:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9:Q10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.88671875" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="30.1796875" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" customWidth="1"/>
+    <col min="11" max="11" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.81640625" customWidth="1"/>
+    <col min="14" max="14" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="11">
+        <v>45226</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="H4" s="11">
         <v>45238</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>15</v>
+      <c r="C5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
@@ -622,25 +686,25 @@
       </c>
       <c r="H5" s="1"/>
       <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>9</v>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
@@ -648,106 +712,104 @@
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="Q7" s="11">
         <v>45261</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
-      <c r="C8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>46</v>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="F9" s="1"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="J9" s="1"/>
+      <c r="K9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="F10" s="1"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="5" t="s">
+      <c r="O10" s="1"/>
+      <c r="P10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="Q10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D11" s="1"/>
       <c r="F11" s="1"/>
@@ -755,277 +817,300 @@
         <v>3</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O11" s="1"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="5" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q13" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="9"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="5" t="s">
+      <c r="O15" s="1"/>
+      <c r="P15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8" t="s">
+      <c r="J19" s="1"/>
+      <c r="K19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8" t="s">
+      <c r="J20" s="1"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8" t="s">
+      <c r="J22" s="1"/>
+      <c r="K22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C28" s="5" t="s">
+    <row r="28" spans="2:17" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C29" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C29" s="6" t="s">
-        <v>33</v>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C30" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
